--- a/output/1Y_P101_1VAL-D.xlsx
+++ b/output/1Y_P101_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>16.485</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>606.6121000000001</v>
       </c>
-      <c r="G2" s="1">
-        <v>606.6121000000001</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.195299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.485</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>1.538</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.195299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>16.9765</v>
       </c>
+      <c r="E3" s="1">
+        <v>606.6121000000001</v>
+      </c>
       <c r="F3" s="1">
         <v>589.0496000000001</v>
       </c>
-      <c r="G3" s="1">
-        <v>1195.6616</v>
-      </c>
       <c r="H3" s="1">
-        <v>20192.812</v>
+        <v>10244.7073</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.7271</v>
+        <v>10244.7073</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.485</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20192.812</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0123</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.414</v>
       </c>
+      <c r="E4" s="1">
+        <v>1195.6616</v>
+      </c>
       <c r="F4" s="1">
         <v>574.2506</v>
       </c>
-      <c r="G4" s="1">
-        <v>1769.9122</v>
-      </c>
       <c r="H4" s="1">
-        <v>30661.4287</v>
+        <v>20713.2836</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>16.95</v>
+        <v>20713.2836</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.7271</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30661.4287</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0155</v>
+        <v>0.0231</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>18.2974</v>
       </c>
+      <c r="E5" s="1">
+        <v>1769.9122</v>
+      </c>
       <c r="F5" s="1">
         <v>546.5257</v>
       </c>
-      <c r="G5" s="1">
-        <v>2316.438</v>
-      </c>
       <c r="H5" s="1">
-        <v>42164.9623</v>
+        <v>32216.8276</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2679</v>
+        <v>32216.8276</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.95</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42164.9623</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.037</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.699</v>
       </c>
+      <c r="E6" s="1">
+        <v>2316.438</v>
+      </c>
       <c r="F6" s="1">
         <v>565.0037</v>
       </c>
-      <c r="G6" s="1">
-        <v>2881.4417</v>
-      </c>
       <c r="H6" s="1">
-        <v>50734.1194</v>
+        <v>40785.9868</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.3524</v>
+        <v>40785.9868</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.2679</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50734.1194</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0274</v>
+        <v>-0.0339</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>18.0595</v>
       </c>
+      <c r="E7" s="1">
+        <v>2881.4417</v>
+      </c>
       <c r="F7" s="1">
         <v>553.7252</v>
       </c>
-      <c r="G7" s="1">
-        <v>3435.1668</v>
-      </c>
       <c r="H7" s="1">
-        <v>61715.5204</v>
+        <v>51767.4044</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.4664</v>
+        <v>51767.4044</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.3524</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61715.5204</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0162</v>
+        <v>0.0193</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>18.696</v>
       </c>
+      <c r="E8" s="1">
+        <v>3435.1668</v>
+      </c>
       <c r="F8" s="1">
         <v>534.8738</v>
       </c>
-      <c r="G8" s="1">
-        <v>3970.0406</v>
-      </c>
       <c r="H8" s="1">
-        <v>73839.1823</v>
+        <v>63891.0115</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6321</v>
+        <v>63891.0115</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.4664</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>73839.1823</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0296</v>
+        <v>0.0344</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.8704</v>
       </c>
+      <c r="E9" s="1">
+        <v>3970.0406</v>
+      </c>
       <c r="F9" s="1">
         <v>559.5846</v>
       </c>
-      <c r="G9" s="1">
-        <v>4529.6252</v>
-      </c>
       <c r="H9" s="1">
-        <v>80526.3174</v>
+        <v>70578.1909</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6615</v>
+        <v>70578.1909</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.6321</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80526.3174</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0395</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.5604</v>
       </c>
+      <c r="E10" s="1">
+        <v>4529.6252</v>
+      </c>
       <c r="F10" s="1">
         <v>569.4631000000001</v>
       </c>
-      <c r="G10" s="1">
-        <v>5099.0883</v>
-      </c>
       <c r="H10" s="1">
-        <v>89078.0128</v>
+        <v>79129.834</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6502</v>
+        <v>79129.834</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6615</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89078.0128</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.016</v>
+        <v>-0.018</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.4279</v>
       </c>
+      <c r="E11" s="1">
+        <v>5099.0883</v>
+      </c>
       <c r="F11" s="1">
         <v>573.7926</v>
       </c>
-      <c r="G11" s="1">
-        <v>5672.8809</v>
-      </c>
       <c r="H11" s="1">
-        <v>98353.5722</v>
+        <v>88405.4431</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6277</v>
+        <v>88405.4431</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6502</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>98353.5722</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0073</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.5932</v>
       </c>
+      <c r="E12" s="1">
+        <v>5672.8809</v>
+      </c>
       <c r="F12" s="1">
         <v>568.4014</v>
       </c>
-      <c r="G12" s="1">
-        <v>6241.2823</v>
-      </c>
       <c r="H12" s="1">
-        <v>109234.9229</v>
+        <v>99286.7611</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6246</v>
+        <v>99286.7611</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6277</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>109234.9229</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0081</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>16.2741</v>
       </c>
+      <c r="E13" s="1">
+        <v>6241.2823</v>
+      </c>
       <c r="F13" s="1">
         <v>614.4733</v>
       </c>
-      <c r="G13" s="1">
-        <v>6855.7556</v>
-      </c>
       <c r="H13" s="1">
-        <v>110992.6266</v>
+        <v>101044.4882</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5035</v>
+        <v>101044.4882</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6246</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>110992.6266</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.06909999999999999</v>
+        <v>-0.07539999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>17.0497</v>
       </c>
+      <c r="E14" s="1">
+        <v>6855.7556</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6855.7556</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6241.2823</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116281.8421</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5035</v>
+        <v>116281.8421</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0449</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>116281.8421</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>116281.8421</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>116281.8421</v>
+        <v>105859.6375</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0389</v>
+        <v>0.0472</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>16.485</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G2" s="1">
-        <v>606.6121000000001</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.195299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.485</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>1.538</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.195299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>16.9765</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>606.6121000000001</v>
       </c>
       <c r="F3" s="1">
         <v>577.6327</v>
       </c>
       <c r="G3" s="1">
-        <v>1184.2448</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10244.7073</v>
       </c>
       <c r="I3" s="1">
-        <v>19806.1821</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.7247</v>
+        <v>10244.7073</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9806.1821</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.1655</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9806.1821</v>
       </c>
-      <c r="O3" s="1">
-        <v>193.8179</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20193.8179</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0123</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.414</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1184.2448</v>
       </c>
       <c r="F4" s="1">
         <v>547.4869</v>
       </c>
       <c r="G4" s="1">
-        <v>1731.7317</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20515.5018</v>
       </c>
       <c r="I4" s="1">
-        <v>29340.1184</v>
+        <v>193.8179</v>
       </c>
       <c r="J4" s="1">
-        <v>16.9426</v>
+        <v>20709.3196</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19340.1184</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.3312</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9533.936299999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>659.8816</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30659.8816</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0154</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>18.2974</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1731.7317</v>
       </c>
       <c r="F5" s="1">
         <v>465.7687</v>
       </c>
       <c r="G5" s="1">
-        <v>2197.5003</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>31521.8458</v>
       </c>
       <c r="I5" s="1">
-        <v>37862.4741</v>
+        <v>659.8816</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2298</v>
+        <v>32181.7274</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27862.4741</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.0894</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8522.3557</v>
       </c>
-      <c r="O5" s="1">
-        <v>2137.5259</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42137.5259</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0363</v>
+        <v>0.0479</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.699</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2197.5003</v>
       </c>
       <c r="F6" s="1">
         <v>642.247</v>
       </c>
       <c r="G6" s="1">
-        <v>2839.7474</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>38691.828</v>
       </c>
       <c r="I6" s="1">
-        <v>49229.6043</v>
+        <v>2137.5259</v>
       </c>
       <c r="J6" s="1">
-        <v>17.3359</v>
+        <v>40829.354</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39229.6043</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.8519</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11367.1302</v>
       </c>
-      <c r="O6" s="1">
-        <v>770.3957</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50770.3957</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0262</v>
+        <v>-0.0321</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>18.0595</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2839.7474</v>
       </c>
       <c r="F7" s="1">
         <v>499.9313</v>
       </c>
       <c r="G7" s="1">
-        <v>3339.6787</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>51018.3334</v>
       </c>
       <c r="I7" s="1">
-        <v>58258.1145</v>
+        <v>770.3957</v>
       </c>
       <c r="J7" s="1">
-        <v>17.4442</v>
+        <v>51788.7291</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48258.1145</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.9938</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9028.510200000001</v>
       </c>
-      <c r="O7" s="1">
-        <v>1741.8855</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61741.8855</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.016</v>
+        <v>0.0189</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>18.696</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3339.6787</v>
       </c>
       <c r="F8" s="1">
         <v>423.9442</v>
       </c>
       <c r="G8" s="1">
-        <v>3763.623</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>62115.0185</v>
       </c>
       <c r="I8" s="1">
-        <v>66184.1761</v>
+        <v>1741.8855</v>
       </c>
       <c r="J8" s="1">
-        <v>17.5852</v>
+        <v>63856.9041</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>56184.1761</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.8232</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7926.0617</v>
       </c>
-      <c r="O8" s="1">
-        <v>3815.8239</v>
-      </c>
-      <c r="P8" s="1">
-        <v>73815.8239</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0289</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.8704</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3763.623</v>
       </c>
       <c r="F9" s="1">
         <v>736.3967</v>
       </c>
       <c r="G9" s="1">
-        <v>4500.0197</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>66908.5601</v>
       </c>
       <c r="I9" s="1">
-        <v>79343.88</v>
+        <v>3815.8239</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6319</v>
+        <v>70724.38400000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69343.88</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.4248</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-13159.7039</v>
       </c>
-      <c r="O9" s="1">
-        <v>656.12</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80656.12</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0377</v>
+        <v>-0.0424</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.5604</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4500.0197</v>
       </c>
       <c r="F10" s="1">
         <v>606.8267</v>
       </c>
       <c r="G10" s="1">
-        <v>5106.8464</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>89213.54270000001</v>
+        <v>78612.6439</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>656.12</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6234</v>
+        <v>79268.76390000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.7777</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10656.12</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89213.54270000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0159</v>
+        <v>-0.018</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.4279</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5106.8464</v>
       </c>
       <c r="F11" s="1">
         <v>573.7926</v>
       </c>
       <c r="G11" s="1">
-        <v>5680.639</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>98488.0788</v>
+        <v>88539.94960000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6037</v>
+        <v>88539.94960000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6234</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>98488.0788</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0073</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.5932</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5680.639</v>
       </c>
       <c r="F12" s="1">
         <v>568.4014</v>
       </c>
       <c r="G12" s="1">
-        <v>6249.0404</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>109370.7057</v>
+        <v>99422.5439</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6027</v>
+        <v>99422.5439</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6037</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>109370.7057</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0081</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>16.2741</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6249.0404</v>
       </c>
       <c r="F13" s="1">
         <v>614.4733</v>
       </c>
       <c r="G13" s="1">
-        <v>6863.5137</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>111118.2284</v>
+        <v>101170.0899</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.4838</v>
+        <v>101170.0899</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6027</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>111118.2284</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.06909999999999999</v>
+        <v>-0.07539999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>17.0497</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6863.5137</v>
       </c>
       <c r="F14" s="1">
         <v>-6863.5137</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116413.4292</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.4838</v>
+        <v>116413.4292</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0268</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>116413.4292</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>116413.4292</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>116413.4292</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0388</v>
+        <v>0.0472</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>16.485</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G2" s="1">
-        <v>606.6121000000001</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.195299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.485</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>1.538</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.195299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>16.9765</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>606.6121000000001</v>
       </c>
       <c r="F3" s="1">
         <v>580.5933</v>
       </c>
       <c r="G3" s="1">
-        <v>1187.2054</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10244.7073</v>
       </c>
       <c r="I3" s="1">
-        <v>19856.443</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.7254</v>
+        <v>10244.7073</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9856.442999999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.2483</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9856.442999999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>143.557</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20193.557</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0123</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.414</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1187.2054</v>
       </c>
       <c r="F4" s="1">
         <v>553.1993</v>
       </c>
       <c r="G4" s="1">
-        <v>1740.4048</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20566.7905</v>
       </c>
       <c r="I4" s="1">
-        <v>29489.8563</v>
+        <v>143.557</v>
       </c>
       <c r="J4" s="1">
-        <v>16.9443</v>
+        <v>20710.3476</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19489.8563</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.4166</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9633.413399999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>510.1437</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30660.3937</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0155</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>18.2974</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1740.4048</v>
       </c>
       <c r="F5" s="1">
         <v>473.6318</v>
       </c>
       <c r="G5" s="1">
-        <v>2214.0366</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31679.7177</v>
       </c>
       <c r="I5" s="1">
-        <v>38156.0876</v>
+        <v>510.1437</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2337</v>
+        <v>32189.8614</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28156.0876</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.1779</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8666.2312</v>
       </c>
-      <c r="O5" s="1">
-        <v>1843.9124</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42144.9137</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0365</v>
+        <v>0.0482</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.699</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2214.0366</v>
       </c>
       <c r="F6" s="1">
         <v>654.2506</v>
       </c>
       <c r="G6" s="1">
-        <v>2868.2872</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>38982.9853</v>
       </c>
       <c r="I6" s="1">
-        <v>49735.6688</v>
+        <v>1843.9124</v>
       </c>
       <c r="J6" s="1">
-        <v>17.3398</v>
+        <v>40826.8977</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39735.6688</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.9472</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11579.5812</v>
       </c>
-      <c r="O6" s="1">
-        <v>264.3312</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50766.8375</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0264</v>
+        <v>-0.0323</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>18.0595</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2868.2872</v>
       </c>
       <c r="F7" s="1">
         <v>513.4169000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>3381.7041</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>51531.074</v>
       </c>
       <c r="I7" s="1">
-        <v>59007.7207</v>
+        <v>264.3312</v>
       </c>
       <c r="J7" s="1">
-        <v>17.4491</v>
+        <v>51795.4053</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49007.7207</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.0861</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9272.0519</v>
       </c>
-      <c r="O7" s="1">
-        <v>992.2793</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61747.2981</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0161</v>
+        <v>0.0191</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>18.696</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3381.7041</v>
       </c>
       <c r="F8" s="1">
         <v>438.8461</v>
       </c>
       <c r="G8" s="1">
-        <v>3820.5501</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>62896.652</v>
       </c>
       <c r="I8" s="1">
-        <v>67212.38679999999</v>
+        <v>992.2793</v>
       </c>
       <c r="J8" s="1">
-        <v>17.5923</v>
+        <v>63888.9313</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57212.3868</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.9182</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8204.6661</v>
       </c>
-      <c r="O8" s="1">
-        <v>2787.6132</v>
-      </c>
-      <c r="P8" s="1">
-        <v>73846.4071</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0293</v>
+        <v>0.0339</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.8704</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3820.5501</v>
       </c>
       <c r="F9" s="1">
         <v>715.5751</v>
       </c>
       <c r="G9" s="1">
-        <v>4536.1252</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>80641.8734</v>
+        <v>67920.594</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>2787.6132</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6362</v>
+        <v>70708.20729999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.322</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-12787.6132</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80641.8734</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0382</v>
+        <v>-0.043</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.5604</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4536.1252</v>
       </c>
       <c r="F10" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>5105.5883</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>89191.5649</v>
+        <v>79243.386</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6277</v>
+        <v>79243.386</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6362</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89191.5649</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.016</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.4279</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5105.5883</v>
       </c>
       <c r="F11" s="1">
         <v>573.7926</v>
       </c>
       <c r="G11" s="1">
-        <v>5679.3809</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>98466.2669</v>
+        <v>88518.1378</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6076</v>
+        <v>88518.1378</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6277</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>98466.2669</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0073</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.5932</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5679.3809</v>
       </c>
       <c r="F12" s="1">
         <v>568.4014</v>
       </c>
       <c r="G12" s="1">
-        <v>6247.7824</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>109348.6869</v>
+        <v>99400.5251</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6062</v>
+        <v>99400.5251</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6076</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>109348.6869</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0081</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>16.2741</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6247.7824</v>
       </c>
       <c r="F13" s="1">
         <v>614.4733</v>
       </c>
       <c r="G13" s="1">
-        <v>6862.2557</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>111097.8606</v>
+        <v>101149.7221</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.487</v>
+        <v>101149.7221</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6062</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>111097.8606</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.06909999999999999</v>
+        <v>-0.07539999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>17.0497</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6862.2557</v>
       </c>
       <c r="F14" s="1">
         <v>-6862.2557</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116392.0908</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.487</v>
+        <v>116392.0908</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0297</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>116392.0908</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>116392.0908</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>116392.0908</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0389</v>
+        <v>0.0472</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>16.485</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G2" s="1">
-        <v>606.6121000000001</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.195299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.485</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>1.538</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.195299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>16.9765</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>606.6121000000001</v>
       </c>
       <c r="F3" s="1">
         <v>583.554</v>
       </c>
       <c r="G3" s="1">
-        <v>1190.166</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10244.7073</v>
       </c>
       <c r="I3" s="1">
-        <v>19906.7038</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.726</v>
+        <v>10244.7073</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9906.703799999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.3312</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9906.703799999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>93.2962</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20193.2962</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0123</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.414</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1190.166</v>
       </c>
       <c r="F4" s="1">
         <v>558.9407</v>
       </c>
       <c r="G4" s="1">
-        <v>1749.1067</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20618.0793</v>
       </c>
       <c r="I4" s="1">
-        <v>29640.0969</v>
+        <v>93.2962</v>
       </c>
       <c r="J4" s="1">
-        <v>16.9458</v>
+        <v>20711.3755</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19640.0969</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.502</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9733.393099999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>359.9031</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30660.9031</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0155</v>
+        <v>0.0231</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>18.2974</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1749.1067</v>
       </c>
       <c r="F5" s="1">
         <v>481.5764</v>
       </c>
       <c r="G5" s="1">
-        <v>2230.6831</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31838.115</v>
       </c>
       <c r="I5" s="1">
-        <v>38451.6935</v>
+        <v>359.9031</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2376</v>
+        <v>32198.0181</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28451.6935</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.2664</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8811.596600000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>1548.3065</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42152.3165</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0367</v>
+        <v>0.0484</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.699</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2230.6831</v>
       </c>
       <c r="F6" s="1">
         <v>652.4836</v>
       </c>
       <c r="G6" s="1">
-        <v>2883.1667</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>50764.4928</v>
+        <v>39276.0843</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>1548.3065</v>
       </c>
       <c r="J6" s="1">
-        <v>17.342</v>
+        <v>40824.3908</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.9317</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11548.3065</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50764.4928</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0266</v>
+        <v>-0.0326</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>18.0595</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2883.1667</v>
       </c>
       <c r="F7" s="1">
         <v>541.1256</v>
       </c>
       <c r="G7" s="1">
-        <v>3424.2923</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>51798.3964</v>
       </c>
       <c r="I7" s="1">
-        <v>59772.4576</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.4554</v>
+        <v>51798.3964</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49772.4576</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.2631</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9772.4576</v>
       </c>
-      <c r="O7" s="1">
-        <v>227.5424</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61747.693</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0162</v>
+        <v>0.0192</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>18.696</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3424.2923</v>
       </c>
       <c r="F8" s="1">
         <v>454.1401</v>
       </c>
       <c r="G8" s="1">
-        <v>3878.4324</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>63688.7549</v>
       </c>
       <c r="I8" s="1">
-        <v>68263.061</v>
+        <v>227.5424</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6007</v>
+        <v>63916.2973</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58263.061</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.0146</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8490.6034</v>
       </c>
-      <c r="O8" s="1">
-        <v>1736.939</v>
-      </c>
-      <c r="P8" s="1">
-        <v>73872.2911</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0296</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.8704</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3878.4324</v>
       </c>
       <c r="F9" s="1">
         <v>656.7809999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>4535.2134</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>80625.66310000001</v>
+        <v>68949.60769999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>1736.939</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6397</v>
+        <v>70686.54670000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>18.0485</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-11736.939</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80625.66310000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0387</v>
+        <v>-0.0437</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.5604</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4535.2134</v>
       </c>
       <c r="F10" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>5104.6765</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>89175.6357</v>
+        <v>79227.4568</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6309</v>
+        <v>79227.4568</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6397</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89175.6357</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.016</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.4279</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5104.6765</v>
       </c>
       <c r="F11" s="1">
         <v>573.7926</v>
       </c>
       <c r="G11" s="1">
-        <v>5678.4691</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>98450.458</v>
+        <v>88502.32889999999</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6104</v>
+        <v>88502.32889999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6309</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>98450.458</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0073</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.5932</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5678.4691</v>
       </c>
       <c r="F12" s="1">
         <v>568.4014</v>
       </c>
       <c r="G12" s="1">
-        <v>6246.8705</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>109332.728</v>
+        <v>99384.5662</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6088</v>
+        <v>99384.5662</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6104</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>109332.728</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0081</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>16.2741</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6246.8705</v>
       </c>
       <c r="F13" s="1">
         <v>614.4733</v>
       </c>
       <c r="G13" s="1">
-        <v>6861.3438</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>111083.0982</v>
+        <v>101134.9598</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.4893</v>
+        <v>101134.9598</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6088</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>111083.0982</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.06909999999999999</v>
+        <v>-0.07539999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>17.0497</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6861.3438</v>
       </c>
       <c r="F14" s="1">
         <v>-6861.3438</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116376.625</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.4893</v>
+        <v>116376.625</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0318</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>116376.625</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>116376.625</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>116376.625</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0389</v>
+        <v>0.0472</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>16.485</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>606.6121000000001</v>
       </c>
       <c r="G2" s="1">
-        <v>606.6121000000001</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.195299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.485</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>1.538</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.195299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>16.9765</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>606.6121000000001</v>
       </c>
       <c r="F3" s="1">
         <v>586.5146</v>
       </c>
       <c r="G3" s="1">
-        <v>1193.1266</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10244.7073</v>
       </c>
       <c r="I3" s="1">
-        <v>19956.9646</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.7266</v>
+        <v>10244.7073</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9956.964599999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.4141</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9956.964599999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>43.0354</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20193.0354</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0123</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.414</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1193.1266</v>
       </c>
       <c r="F4" s="1">
         <v>564.7109</v>
       </c>
       <c r="G4" s="1">
-        <v>1757.8375</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20669.368</v>
       </c>
       <c r="I4" s="1">
-        <v>29790.84</v>
+        <v>43.0354</v>
       </c>
       <c r="J4" s="1">
-        <v>16.9474</v>
+        <v>20712.4034</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19790.84</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.5874</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9833.875400000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>209.16</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30661.41</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0155</v>
+        <v>0.0231</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>18.2974</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1757.8375</v>
       </c>
       <c r="F5" s="1">
         <v>489.6029</v>
       </c>
       <c r="G5" s="1">
-        <v>2247.4404</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>31997.0376</v>
       </c>
       <c r="I5" s="1">
-        <v>38749.2994</v>
+        <v>209.16</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2415</v>
+        <v>32206.1976</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28749.2994</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.3549</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8958.4594</v>
       </c>
-      <c r="O5" s="1">
-        <v>1250.7006</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42159.7343</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0368</v>
+        <v>0.0486</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.699</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2247.4404</v>
       </c>
       <c r="F6" s="1">
         <v>635.6686999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>2883.1091</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>50763.4787</v>
+        <v>39571.1325</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>1250.7006</v>
       </c>
       <c r="J6" s="1">
-        <v>17.3424</v>
+        <v>40821.8331</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.798</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-11250.7006</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50763.4787</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0268</v>
+        <v>-0.0328</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>18.0595</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2883.1091</v>
       </c>
       <c r="F7" s="1">
         <v>553.7252</v>
       </c>
       <c r="G7" s="1">
-        <v>3436.8343</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>61745.4775</v>
+        <v>51797.3616</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.4579</v>
+        <v>51797.3616</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.3424</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61745.4775</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0162</v>
+        <v>0.0192</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>18.696</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3436.8343</v>
       </c>
       <c r="F8" s="1">
         <v>500.4499</v>
       </c>
       <c r="G8" s="1">
-        <v>3937.2842</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>63922.0247</v>
       </c>
       <c r="I8" s="1">
-        <v>69356.4108</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.6153</v>
+        <v>63922.0247</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59356.4108</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.2707</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9356.4108</v>
       </c>
-      <c r="O8" s="1">
-        <v>643.5892</v>
-      </c>
-      <c r="P8" s="1">
-        <v>73873.53109999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0297</v>
+        <v>0.0344</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.8704</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3937.2842</v>
       </c>
       <c r="F9" s="1">
         <v>595.5988</v>
       </c>
       <c r="G9" s="1">
-        <v>4532.883</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>80584.23390000001</v>
+        <v>69995.8567</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>643.5892</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6488</v>
+        <v>70639.44590000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.7788</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10643.5892</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>80584.23390000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0392</v>
+        <v>-0.0444</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.5604</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4532.883</v>
       </c>
       <c r="F10" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>5102.3461</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>89134.9249</v>
+        <v>79186.7461</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.6389</v>
+        <v>79186.7461</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6488</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89134.9249</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.016</v>
+        <v>-0.018</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.4279</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5102.3461</v>
       </c>
       <c r="F11" s="1">
         <v>573.7926</v>
       </c>
       <c r="G11" s="1">
-        <v>5676.1387</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>98410.0546</v>
+        <v>88461.9255</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6176</v>
+        <v>88461.9255</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.6389</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>98410.0546</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0073</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.5932</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5676.1387</v>
       </c>
       <c r="F12" s="1">
         <v>568.4014</v>
       </c>
       <c r="G12" s="1">
-        <v>6244.5401</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>109291.9412</v>
+        <v>99343.7794</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6154</v>
+        <v>99343.7794</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6176</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>109291.9412</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0081</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>16.2741</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6244.5401</v>
       </c>
       <c r="F13" s="1">
         <v>614.4733</v>
       </c>
       <c r="G13" s="1">
-        <v>6859.0134</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>111045.3697</v>
+        <v>101097.2312</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.4952</v>
+        <v>101097.2312</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6154</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>111045.3697</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.06909999999999999</v>
+        <v>-0.07539999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>17.0497</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6859.0134</v>
       </c>
       <c r="F14" s="1">
         <v>-6859.0134</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116337.0985</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.4952</v>
+        <v>116337.0985</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0373</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>116337.0985</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>116337.0985</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>116337.0985</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0389</v>
+        <v>0.0472</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.0037</v>
@@ -4514,99 +4487,99 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.5035</v>
+        <v>16.0449</v>
       </c>
       <c r="D3" s="1">
-        <v>17.4838</v>
+        <v>16.0268</v>
       </c>
       <c r="E3" s="1">
-        <v>17.487</v>
+        <v>16.0297</v>
       </c>
       <c r="F3" s="1">
-        <v>17.4893</v>
+        <v>16.0318</v>
       </c>
       <c r="G3" s="1">
-        <v>17.4952</v>
+        <v>16.0373</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.0423</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0796</v>
+        <v>0.0261</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.078</v>
+        <v>0.0277</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.07820000000000001</v>
+        <v>0.0277</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.07829999999999999</v>
+        <v>0.0276</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.07870000000000001</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1304</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1065</v>
+        <v>0.1287</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1052</v>
+        <v>0.1267</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1056</v>
+        <v>0.1272</v>
       </c>
       <c r="F5" s="3">
-        <v>0.106</v>
+        <v>0.1277</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1063</v>
+        <v>0.1281</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.1688</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.9383</v>
+        <v>0.0453</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.9348</v>
+        <v>0.0586</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.9324</v>
+        <v>0.0576</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.9298999999999999</v>
+        <v>0.0571</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.9320000000000001</v>
+        <v>0.0532</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0567</v>
+        <v>-0.21</v>
       </c>
       <c r="D7" s="3">
         <v>-0.0554</v>
@@ -4623,7 +4596,7 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
